--- a/config_12.15/fish_config.xlsx
+++ b/config_12.15/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="203">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1213,6 +1213,17 @@
   <si>
     <t>by_lhy_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D091</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_jzy</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1352,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1434,6 +1445,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1712,11 +1726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4285,6 +4299,84 @@
         <v>187</v>
       </c>
     </row>
+    <row r="36" spans="1:28" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14">
+        <v>35</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="15">
+        <v>2.64</v>
+      </c>
+      <c r="H36" s="15">
+        <v>2.38</v>
+      </c>
+      <c r="I36" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="14">
+        <v>30</v>
+      </c>
+      <c r="K36" s="17">
+        <v>1</v>
+      </c>
+      <c r="L36" s="14">
+        <v>200</v>
+      </c>
+      <c r="M36" s="14">
+        <v>4</v>
+      </c>
+      <c r="N36" s="18"/>
+      <c r="O36" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="P36" s="19">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="S36" s="19">
+        <v>1</v>
+      </c>
+      <c r="T36" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="U36" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="V36" s="14"/>
+      <c r="W36" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="X36" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y36" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
